--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H2">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I2">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J2">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.6796555</v>
+        <v>2.9895435</v>
       </c>
       <c r="N2">
-        <v>7.359311</v>
+        <v>5.979087</v>
       </c>
       <c r="O2">
-        <v>0.2471150174360556</v>
+        <v>0.100046245825527</v>
       </c>
       <c r="P2">
-        <v>0.1885323046020433</v>
+        <v>0.0697260839163775</v>
       </c>
       <c r="Q2">
-        <v>149.8906030478303</v>
+        <v>80.8484042477115</v>
       </c>
       <c r="R2">
-        <v>599.5624121913211</v>
+        <v>323.393616990846</v>
       </c>
       <c r="S2">
-        <v>0.01375904747770575</v>
+        <v>0.002652711304817149</v>
       </c>
       <c r="T2">
-        <v>0.007214503231763605</v>
+        <v>0.001250253732331445</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H3">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I3">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J3">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.036913999999999</v>
+        <v>3.036914</v>
       </c>
       <c r="N3">
-        <v>9.110741999999998</v>
+        <v>9.110742</v>
       </c>
       <c r="O3">
-        <v>0.203950357869589</v>
+        <v>0.1016315181883068</v>
       </c>
       <c r="P3">
-        <v>0.233400815089161</v>
+        <v>0.1062463819697664</v>
       </c>
       <c r="Q3">
-        <v>123.708556647327</v>
+        <v>82.12947921230599</v>
       </c>
       <c r="R3">
-        <v>742.2513398839619</v>
+        <v>492.776875273836</v>
       </c>
       <c r="S3">
-        <v>0.01135569455121798</v>
+        <v>0.002694744565368414</v>
       </c>
       <c r="T3">
-        <v>0.008931471655806419</v>
+        <v>0.001905096746344192</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H4">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I4">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J4">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.767296666666667</v>
+        <v>3.079502999999999</v>
       </c>
       <c r="N4">
-        <v>11.30189</v>
+        <v>9.238508999999999</v>
       </c>
       <c r="O4">
-        <v>0.2530007446268075</v>
+        <v>0.1030567757781239</v>
       </c>
       <c r="P4">
-        <v>0.2895340838373031</v>
+        <v>0.1077363573729917</v>
       </c>
       <c r="Q4">
-        <v>153.460662071965</v>
+        <v>83.28124458668698</v>
       </c>
       <c r="R4">
-        <v>920.7639724317901</v>
+        <v>499.6874675201219</v>
       </c>
       <c r="S4">
-        <v>0.01408675722476446</v>
+        <v>0.002732535058050944</v>
       </c>
       <c r="T4">
-        <v>0.01107950485174995</v>
+        <v>0.001931813395327354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H5">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I5">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J5">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.956967</v>
+        <v>0.9042245</v>
       </c>
       <c r="N5">
-        <v>3.913934</v>
+        <v>1.808449</v>
       </c>
       <c r="O5">
-        <v>0.131424241841875</v>
+        <v>0.03026022755931272</v>
       </c>
       <c r="P5">
-        <v>0.1002679458824737</v>
+        <v>0.02108951863929877</v>
       </c>
       <c r="Q5">
-        <v>79.7169636599685</v>
+        <v>24.4536023331605</v>
       </c>
       <c r="R5">
-        <v>318.867854639874</v>
+        <v>97.814409332642</v>
       </c>
       <c r="S5">
-        <v>0.007317533357485064</v>
+        <v>0.0008023454260634222</v>
       </c>
       <c r="T5">
-        <v>0.003836920262224201</v>
+        <v>0.0003781547436893073</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H6">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I6">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J6">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.498192666666667</v>
+        <v>16.70532533333333</v>
       </c>
       <c r="N6">
-        <v>4.494578</v>
+        <v>50.115976</v>
       </c>
       <c r="O6">
-        <v>0.1006142849367024</v>
+        <v>0.55905026466217</v>
       </c>
       <c r="P6">
-        <v>0.1151430002827225</v>
+        <v>0.5844355079842727</v>
       </c>
       <c r="Q6">
-        <v>61.028811607093</v>
+        <v>451.7742911715014</v>
       </c>
       <c r="R6">
-        <v>366.172869642558</v>
+        <v>2710.645747029008</v>
       </c>
       <c r="S6">
-        <v>0.005602074441864801</v>
+        <v>0.01482313448938998</v>
       </c>
       <c r="T6">
-        <v>0.004406139040246239</v>
+        <v>0.01047947388011466</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H7">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I7">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J7">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.951431</v>
+        <v>3.166105666666667</v>
       </c>
       <c r="N7">
-        <v>2.854293</v>
+        <v>9.498317</v>
       </c>
       <c r="O7">
-        <v>0.06389535328897063</v>
+        <v>0.1059549679865596</v>
       </c>
       <c r="P7">
-        <v>0.07312185030629634</v>
+        <v>0.110766150117293</v>
       </c>
       <c r="Q7">
-        <v>38.7564994463205</v>
+        <v>85.62330363469766</v>
       </c>
       <c r="R7">
-        <v>232.5389966779231</v>
+        <v>513.739821808186</v>
       </c>
       <c r="S7">
-        <v>0.003557611385294373</v>
+        <v>0.002809380192732537</v>
       </c>
       <c r="T7">
-        <v>0.00279812961741938</v>
+        <v>0.001986140405737066</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J8">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.6796555</v>
+        <v>2.9895435</v>
       </c>
       <c r="N8">
-        <v>7.359311</v>
+        <v>5.979087</v>
       </c>
       <c r="O8">
-        <v>0.2471150174360556</v>
+        <v>0.100046245825527</v>
       </c>
       <c r="P8">
-        <v>0.1885323046020433</v>
+        <v>0.0697260839163775</v>
       </c>
       <c r="Q8">
-        <v>1289.321506521487</v>
+        <v>1047.51184702794</v>
       </c>
       <c r="R8">
-        <v>7735.92903912892</v>
+        <v>6285.071082167639</v>
       </c>
       <c r="S8">
-        <v>0.1183518877203759</v>
+        <v>0.03436983752984295</v>
       </c>
       <c r="T8">
-        <v>0.09308603060940415</v>
+        <v>0.02429835706581356</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J9">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.036913999999999</v>
+        <v>3.036914</v>
       </c>
       <c r="N9">
-        <v>9.110741999999998</v>
+        <v>9.110742</v>
       </c>
       <c r="O9">
-        <v>0.203950357869589</v>
+        <v>0.1016315181883068</v>
       </c>
       <c r="P9">
-        <v>0.233400815089161</v>
+        <v>0.1062463819697664</v>
       </c>
       <c r="Q9">
         <v>1064.110086842693</v>
       </c>
       <c r="R9">
-        <v>9576.990781584238</v>
+        <v>9576.99078158424</v>
       </c>
       <c r="S9">
-        <v>0.09767884649648248</v>
+        <v>0.03491444120886866</v>
       </c>
       <c r="T9">
-        <v>0.1152394305236433</v>
+        <v>0.03702506122598723</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J10">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.767296666666667</v>
+        <v>3.079502999999999</v>
       </c>
       <c r="N10">
-        <v>11.30189</v>
+        <v>9.238508999999999</v>
       </c>
       <c r="O10">
-        <v>0.2530007446268075</v>
+        <v>0.1030567757781239</v>
       </c>
       <c r="P10">
-        <v>0.2895340838373031</v>
+        <v>0.1077363573729917</v>
       </c>
       <c r="Q10">
-        <v>1320.030262012311</v>
+        <v>1079.03292775572</v>
       </c>
       <c r="R10">
-        <v>11880.2723581108</v>
+        <v>9711.296349801478</v>
       </c>
       <c r="S10">
-        <v>0.121170765062838</v>
+        <v>0.035404073492379</v>
       </c>
       <c r="T10">
-        <v>0.1429546975911357</v>
+        <v>0.03754429237068002</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J11">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.956967</v>
+        <v>0.9042245</v>
       </c>
       <c r="N11">
-        <v>3.913934</v>
+        <v>1.808449</v>
       </c>
       <c r="O11">
-        <v>0.131424241841875</v>
+        <v>0.03026022755931272</v>
       </c>
       <c r="P11">
-        <v>0.1002679458824737</v>
+        <v>0.02108951863929877</v>
       </c>
       <c r="Q11">
-        <v>685.7053984137466</v>
+        <v>316.8329466097134</v>
       </c>
       <c r="R11">
-        <v>4114.23239048248</v>
+        <v>1900.99767965828</v>
       </c>
       <c r="S11">
-        <v>0.06294359313160723</v>
+        <v>0.01039558352487712</v>
       </c>
       <c r="T11">
-        <v>0.0495063437497325</v>
+        <v>0.0073493393786231</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J12">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.498192666666667</v>
+        <v>16.70532533333333</v>
       </c>
       <c r="N12">
-        <v>4.494578</v>
+        <v>50.115976</v>
       </c>
       <c r="O12">
-        <v>0.1006142849367024</v>
+        <v>0.55905026466217</v>
       </c>
       <c r="P12">
-        <v>0.1151430002827225</v>
+        <v>0.5844355079842727</v>
       </c>
       <c r="Q12">
-        <v>524.9545850273511</v>
+        <v>5853.410795033636</v>
       </c>
       <c r="R12">
-        <v>4724.591265246159</v>
+        <v>52680.69715530272</v>
       </c>
       <c r="S12">
-        <v>0.04818764426963987</v>
+        <v>0.1920558498613036</v>
       </c>
       <c r="T12">
-        <v>0.05685076025246854</v>
+        <v>0.2036658572704733</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J13">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.951431</v>
+        <v>3.166105666666667</v>
       </c>
       <c r="N13">
-        <v>2.854293</v>
+        <v>9.498317</v>
       </c>
       <c r="O13">
-        <v>0.06389535328897063</v>
+        <v>0.1059549679865596</v>
       </c>
       <c r="P13">
-        <v>0.07312185030629634</v>
+        <v>0.110766150117293</v>
       </c>
       <c r="Q13">
-        <v>333.3737221517733</v>
+        <v>1109.377801251471</v>
       </c>
       <c r="R13">
-        <v>3000.36349936596</v>
+        <v>9984.400211263239</v>
       </c>
       <c r="S13">
-        <v>0.03060168401245305</v>
+        <v>0.03639971700216051</v>
       </c>
       <c r="T13">
-        <v>0.03610321748411068</v>
+        <v>0.03860012372964083</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H14">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I14">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J14">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.6796555</v>
+        <v>2.9895435</v>
       </c>
       <c r="N14">
-        <v>7.359311</v>
+        <v>5.979087</v>
       </c>
       <c r="O14">
-        <v>0.2471150174360556</v>
+        <v>0.100046245825527</v>
       </c>
       <c r="P14">
-        <v>0.1885323046020433</v>
+        <v>0.0697260839163775</v>
       </c>
       <c r="Q14">
-        <v>897.2056292783684</v>
+        <v>1148.26147593723</v>
       </c>
       <c r="R14">
-        <v>5383.23377567021</v>
+        <v>6889.56885562338</v>
       </c>
       <c r="S14">
-        <v>0.08235803045349499</v>
+        <v>0.03767552651715986</v>
       </c>
       <c r="T14">
-        <v>0.06477617122455415</v>
+        <v>0.02663537164415163</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H15">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I15">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J15">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.036913999999999</v>
+        <v>3.036914</v>
       </c>
       <c r="N15">
-        <v>9.110741999999998</v>
+        <v>9.110742</v>
       </c>
       <c r="O15">
-        <v>0.203950357869589</v>
+        <v>0.1016315181883068</v>
       </c>
       <c r="P15">
-        <v>0.233400815089161</v>
+        <v>0.1062463819697664</v>
       </c>
       <c r="Q15">
-        <v>740.4868027548466</v>
+        <v>1166.45613349812</v>
       </c>
       <c r="R15">
-        <v>6664.381224793619</v>
+        <v>10498.10520148308</v>
       </c>
       <c r="S15">
-        <v>0.06797219351013845</v>
+        <v>0.03827251014656051</v>
       </c>
       <c r="T15">
-        <v>0.08019215165315567</v>
+        <v>0.04058612947494849</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H16">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I16">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J16">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.767296666666667</v>
+        <v>3.079502999999999</v>
       </c>
       <c r="N16">
-        <v>11.30189</v>
+        <v>9.238508999999999</v>
       </c>
       <c r="O16">
-        <v>0.2530007446268075</v>
+        <v>0.1030567757781239</v>
       </c>
       <c r="P16">
-        <v>0.2895340838373031</v>
+        <v>0.1077363573729917</v>
       </c>
       <c r="Q16">
-        <v>918.5750613053223</v>
+        <v>1182.81425238774</v>
       </c>
       <c r="R16">
-        <v>8267.175551747901</v>
+        <v>10645.32827148966</v>
       </c>
       <c r="S16">
-        <v>0.08431961459454111</v>
+        <v>0.03880923523480201</v>
       </c>
       <c r="T16">
-        <v>0.0994784921850804</v>
+        <v>0.0411553002411304</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H17">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I17">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J17">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.956967</v>
+        <v>0.9042245</v>
       </c>
       <c r="N17">
-        <v>3.913934</v>
+        <v>1.808449</v>
       </c>
       <c r="O17">
-        <v>0.131424241841875</v>
+        <v>0.03026022755931272</v>
       </c>
       <c r="P17">
-        <v>0.1002679458824737</v>
+        <v>0.02108951863929877</v>
       </c>
       <c r="Q17">
-        <v>477.1647260761233</v>
+        <v>347.30592110421</v>
       </c>
       <c r="R17">
-        <v>2862.98835645674</v>
+        <v>2083.83552662526</v>
       </c>
       <c r="S17">
-        <v>0.04380082531706696</v>
+        <v>0.01139543014751771</v>
       </c>
       <c r="T17">
-        <v>0.03445018955519125</v>
+        <v>0.008056198415325681</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H18">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I18">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J18">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.498192666666667</v>
+        <v>16.70532533333333</v>
       </c>
       <c r="N18">
-        <v>4.494578</v>
+        <v>50.115976</v>
       </c>
       <c r="O18">
-        <v>0.1006142849367024</v>
+        <v>0.55905026466217</v>
       </c>
       <c r="P18">
-        <v>0.1151430002827225</v>
+        <v>0.5844355079842727</v>
       </c>
       <c r="Q18">
-        <v>365.3023752568422</v>
+        <v>6416.391507019361</v>
       </c>
       <c r="R18">
-        <v>3287.72137731158</v>
+        <v>57747.52356317425</v>
       </c>
       <c r="S18">
-        <v>0.03353254055074889</v>
+        <v>0.2105277704016625</v>
       </c>
       <c r="T18">
-        <v>0.03956097984038371</v>
+        <v>0.22325442765248</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H19">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I19">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J19">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.951431</v>
+        <v>3.166105666666667</v>
       </c>
       <c r="N19">
-        <v>2.854293</v>
+        <v>9.498317</v>
       </c>
       <c r="O19">
-        <v>0.06389535328897063</v>
+        <v>0.1059549679865596</v>
       </c>
       <c r="P19">
-        <v>0.07312185030629634</v>
+        <v>0.110766150117293</v>
       </c>
       <c r="Q19">
-        <v>231.9861870411367</v>
+        <v>1216.07769406262</v>
       </c>
       <c r="R19">
-        <v>2087.87568337023</v>
+        <v>10944.69924656358</v>
       </c>
       <c r="S19">
-        <v>0.02129492374283386</v>
+        <v>0.03990063967981403</v>
       </c>
       <c r="T19">
-        <v>0.02512329919105829</v>
+        <v>0.0423126813991774</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H20">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I20">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J20">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.6796555</v>
+        <v>2.9895435</v>
       </c>
       <c r="N20">
-        <v>7.359311</v>
+        <v>5.979087</v>
       </c>
       <c r="O20">
-        <v>0.2471150174360556</v>
+        <v>0.100046245825527</v>
       </c>
       <c r="P20">
-        <v>0.1885323046020433</v>
+        <v>0.0697260839163775</v>
       </c>
       <c r="Q20">
-        <v>92.29436665421449</v>
+        <v>48.91699744836301</v>
       </c>
       <c r="R20">
-        <v>369.1774666168579</v>
+        <v>195.667989793452</v>
       </c>
       <c r="S20">
-        <v>0.008472062603650334</v>
+        <v>0.001605012162409591</v>
       </c>
       <c r="T20">
-        <v>0.004442293198913407</v>
+        <v>0.0007564609246569612</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H21">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I21">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J21">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.036913999999999</v>
+        <v>3.036914</v>
       </c>
       <c r="N21">
-        <v>9.110741999999998</v>
+        <v>9.110742</v>
       </c>
       <c r="O21">
-        <v>0.203950357869589</v>
+        <v>0.1016315181883068</v>
       </c>
       <c r="P21">
-        <v>0.233400815089161</v>
+        <v>0.1062463819697664</v>
       </c>
       <c r="Q21">
-        <v>76.17290646184598</v>
+        <v>49.692106633972</v>
       </c>
       <c r="R21">
-        <v>457.0374387710759</v>
+        <v>298.152639803832</v>
       </c>
       <c r="S21">
-        <v>0.006992210420215192</v>
+        <v>0.001630444215376682</v>
       </c>
       <c r="T21">
-        <v>0.00549950766092841</v>
+        <v>0.001152671021115935</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H22">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I22">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J22">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.767296666666667</v>
+        <v>3.079502999999999</v>
       </c>
       <c r="N22">
-        <v>11.30189</v>
+        <v>9.238508999999999</v>
       </c>
       <c r="O22">
-        <v>0.2530007446268075</v>
+        <v>0.1030567757781239</v>
       </c>
       <c r="P22">
-        <v>0.2895340838373031</v>
+        <v>0.1077363573729917</v>
       </c>
       <c r="Q22">
-        <v>94.49261210690332</v>
+        <v>50.388977579094</v>
       </c>
       <c r="R22">
-        <v>566.9556726414199</v>
+        <v>302.333865474564</v>
       </c>
       <c r="S22">
-        <v>0.008673848192180823</v>
+        <v>0.001653309198938507</v>
       </c>
       <c r="T22">
-        <v>0.006822148035579341</v>
+        <v>0.00116883582068494</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H23">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I23">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J23">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.956967</v>
+        <v>0.9042245</v>
       </c>
       <c r="N23">
-        <v>3.913934</v>
+        <v>1.808449</v>
       </c>
       <c r="O23">
-        <v>0.131424241841875</v>
+        <v>0.03026022755931272</v>
       </c>
       <c r="P23">
-        <v>0.1002679458824737</v>
+        <v>0.02108951863929877</v>
       </c>
       <c r="Q23">
-        <v>49.085309705813</v>
+        <v>14.795552417701</v>
       </c>
       <c r="R23">
-        <v>196.341238823252</v>
+        <v>59.18220967080401</v>
       </c>
       <c r="S23">
-        <v>0.00450573346805911</v>
+        <v>0.0004854558296438005</v>
       </c>
       <c r="T23">
-        <v>0.00236256388528708</v>
+        <v>0.0002288009862935523</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H24">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I24">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J24">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.498192666666667</v>
+        <v>16.70532533333333</v>
       </c>
       <c r="N24">
-        <v>4.494578</v>
+        <v>50.115976</v>
       </c>
       <c r="O24">
-        <v>0.1006142849367024</v>
+        <v>0.55905026466217</v>
       </c>
       <c r="P24">
-        <v>0.1151430002827225</v>
+        <v>0.5844355079842727</v>
       </c>
       <c r="Q24">
-        <v>37.57817635264733</v>
+        <v>273.3441934210827</v>
       </c>
       <c r="R24">
-        <v>225.469058115884</v>
+        <v>1640.065160526496</v>
       </c>
       <c r="S24">
-        <v>0.003449448478078949</v>
+        <v>0.008968677103045684</v>
       </c>
       <c r="T24">
-        <v>0.002713057415481669</v>
+        <v>0.006340562956358735</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H25">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I25">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J25">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.951431</v>
+        <v>3.166105666666667</v>
       </c>
       <c r="N25">
-        <v>2.854293</v>
+        <v>9.498317</v>
       </c>
       <c r="O25">
-        <v>0.06389535328897063</v>
+        <v>0.1059549679865596</v>
       </c>
       <c r="P25">
-        <v>0.07312185030629634</v>
+        <v>0.110766150117293</v>
       </c>
       <c r="Q25">
-        <v>23.864114877109</v>
+        <v>51.80603085975534</v>
       </c>
       <c r="R25">
-        <v>143.184689262654</v>
+        <v>310.836185158532</v>
       </c>
       <c r="S25">
-        <v>0.002190580883197799</v>
+        <v>0.001699804034453396</v>
       </c>
       <c r="T25">
-        <v>0.001722933897155066</v>
+        <v>0.00120170615689401</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H26">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I26">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J26">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.6796555</v>
+        <v>2.9895435</v>
       </c>
       <c r="N26">
-        <v>7.359311</v>
+        <v>5.979087</v>
       </c>
       <c r="O26">
-        <v>0.2471150174360556</v>
+        <v>0.100046245825527</v>
       </c>
       <c r="P26">
-        <v>0.1885323046020433</v>
+        <v>0.0697260839163775</v>
       </c>
       <c r="Q26">
-        <v>84.01417770947349</v>
+        <v>130.0585065059595</v>
       </c>
       <c r="R26">
-        <v>504.0850662568409</v>
+        <v>780.3510390357569</v>
       </c>
       <c r="S26">
-        <v>0.007711991521817996</v>
+        <v>0.004267340508526602</v>
       </c>
       <c r="T26">
-        <v>0.006065629308385109</v>
+        <v>0.00301687092083451</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H27">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I27">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J27">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.036913999999999</v>
+        <v>3.036914</v>
       </c>
       <c r="N27">
-        <v>9.110741999999998</v>
+        <v>9.110742</v>
       </c>
       <c r="O27">
-        <v>0.203950357869589</v>
+        <v>0.1016315181883068</v>
       </c>
       <c r="P27">
-        <v>0.233400815089161</v>
+        <v>0.1062463819697664</v>
       </c>
       <c r="Q27">
-        <v>69.33905429037799</v>
+        <v>132.1193350178847</v>
       </c>
       <c r="R27">
-        <v>624.0514886134018</v>
+        <v>1189.074015160962</v>
       </c>
       <c r="S27">
-        <v>0.006364904274460035</v>
+        <v>0.004334958207870719</v>
       </c>
       <c r="T27">
-        <v>0.0075091790109611</v>
+        <v>0.00459701165195048</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H28">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I28">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J28">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.767296666666667</v>
+        <v>3.079502999999999</v>
       </c>
       <c r="N28">
-        <v>11.30189</v>
+        <v>9.238508999999999</v>
       </c>
       <c r="O28">
-        <v>0.2530007446268075</v>
+        <v>0.1030567757781239</v>
       </c>
       <c r="P28">
-        <v>0.2895340838373031</v>
+        <v>0.1077363573729917</v>
       </c>
       <c r="Q28">
-        <v>86.01520757517666</v>
+        <v>133.972146904911</v>
       </c>
       <c r="R28">
-        <v>774.1368681765899</v>
+        <v>1205.749322144199</v>
       </c>
       <c r="S28">
-        <v>0.007895673916622502</v>
+        <v>0.004395750688367369</v>
       </c>
       <c r="T28">
-        <v>0.009315148554551447</v>
+        <v>0.004661479111103066</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H29">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I29">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J29">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.956967</v>
+        <v>0.9042245</v>
       </c>
       <c r="N29">
-        <v>3.913934</v>
+        <v>1.808449</v>
       </c>
       <c r="O29">
-        <v>0.131424241841875</v>
+        <v>0.03026022755931272</v>
       </c>
       <c r="P29">
-        <v>0.1002679458824737</v>
+        <v>0.02108951863929877</v>
       </c>
       <c r="Q29">
-        <v>44.68162123045899</v>
+        <v>39.33780793492316</v>
       </c>
       <c r="R29">
-        <v>268.0897273827539</v>
+        <v>236.026847609539</v>
       </c>
       <c r="S29">
-        <v>0.004101501597765769</v>
+        <v>0.00129071004909352</v>
       </c>
       <c r="T29">
-        <v>0.003225909705607625</v>
+        <v>0.0009124900172739162</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H30">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I30">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J30">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.498192666666667</v>
+        <v>16.70532533333333</v>
       </c>
       <c r="N30">
-        <v>4.494578</v>
+        <v>50.115976</v>
       </c>
       <c r="O30">
-        <v>0.1006142849367024</v>
+        <v>0.55905026466217</v>
       </c>
       <c r="P30">
-        <v>0.1151430002827225</v>
+        <v>0.5844355079842727</v>
       </c>
       <c r="Q30">
-        <v>34.20685032616866</v>
+        <v>726.7563303726818</v>
       </c>
       <c r="R30">
-        <v>307.861652935518</v>
+        <v>6540.806973354136</v>
       </c>
       <c r="S30">
-        <v>0.003139981213834618</v>
+        <v>0.0238455508351188</v>
       </c>
       <c r="T30">
-        <v>0.003704483211216773</v>
+        <v>0.02528704309932941</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H31">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I31">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J31">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.951431</v>
+        <v>3.166105666666667</v>
       </c>
       <c r="N31">
-        <v>2.854293</v>
+        <v>9.498317</v>
       </c>
       <c r="O31">
-        <v>0.06389535328897063</v>
+        <v>0.1059549679865596</v>
       </c>
       <c r="P31">
-        <v>0.07312185030629634</v>
+        <v>0.110766150117293</v>
       </c>
       <c r="Q31">
-        <v>21.723145852187</v>
+        <v>137.7397500476985</v>
       </c>
       <c r="R31">
-        <v>195.508312669683</v>
+        <v>1239.657750429287</v>
       </c>
       <c r="S31">
-        <v>0.001994052923050763</v>
+        <v>0.004519369250068544</v>
       </c>
       <c r="T31">
-        <v>0.002352541328327945</v>
+        <v>0.004792570563727887</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H32">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I32">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J32">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.6796555</v>
+        <v>2.9895435</v>
       </c>
       <c r="N32">
-        <v>7.359311</v>
+        <v>5.979087</v>
       </c>
       <c r="O32">
-        <v>0.2471150174360556</v>
+        <v>0.100046245825527</v>
       </c>
       <c r="P32">
-        <v>0.1885323046020433</v>
+        <v>0.0697260839163775</v>
       </c>
       <c r="Q32">
-        <v>179.336451922217</v>
+        <v>593.577140457705</v>
       </c>
       <c r="R32">
-        <v>1076.018711533302</v>
+        <v>3561.46284274623</v>
       </c>
       <c r="S32">
-        <v>0.01646199765901066</v>
+        <v>0.01947581780277081</v>
       </c>
       <c r="T32">
-        <v>0.01294767702902288</v>
+        <v>0.0137687696285894</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H33">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I33">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J33">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.036913999999999</v>
+        <v>3.036914</v>
       </c>
       <c r="N33">
-        <v>9.110741999999998</v>
+        <v>9.110742</v>
       </c>
       <c r="O33">
-        <v>0.203950357869589</v>
+        <v>0.1016315181883068</v>
       </c>
       <c r="P33">
-        <v>0.233400815089161</v>
+        <v>0.1062463819697664</v>
       </c>
       <c r="Q33">
-        <v>148.010970470716</v>
+        <v>602.9826051823533</v>
       </c>
       <c r="R33">
-        <v>1332.098734236444</v>
+        <v>5426.84344664118</v>
       </c>
       <c r="S33">
-        <v>0.0135865086170748</v>
+        <v>0.01978441984426181</v>
       </c>
       <c r="T33">
-        <v>0.01602907458466614</v>
+        <v>0.02098041184942012</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H34">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I34">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J34">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.767296666666667</v>
+        <v>3.079502999999999</v>
       </c>
       <c r="N34">
-        <v>11.30189</v>
+        <v>9.238508999999999</v>
       </c>
       <c r="O34">
-        <v>0.2530007446268075</v>
+        <v>0.1030567757781239</v>
       </c>
       <c r="P34">
-        <v>0.2895340838373031</v>
+        <v>0.1077363573729917</v>
       </c>
       <c r="Q34">
-        <v>183.6078452285533</v>
+        <v>611.4386978382898</v>
       </c>
       <c r="R34">
-        <v>1652.47060705698</v>
+        <v>5502.948280544609</v>
       </c>
       <c r="S34">
-        <v>0.01685408563586057</v>
+        <v>0.02006187210558606</v>
       </c>
       <c r="T34">
-        <v>0.01988409261920626</v>
+        <v>0.0212746364340659</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H35">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I35">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J35">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.956967</v>
+        <v>0.9042245</v>
       </c>
       <c r="N35">
-        <v>3.913934</v>
+        <v>1.808449</v>
       </c>
       <c r="O35">
-        <v>0.131424241841875</v>
+        <v>0.03026022755931272</v>
       </c>
       <c r="P35">
-        <v>0.1002679458824737</v>
+        <v>0.02108951863929877</v>
       </c>
       <c r="Q35">
-        <v>95.377276027298</v>
+        <v>179.5347661078683</v>
       </c>
       <c r="R35">
-        <v>572.263656163788</v>
+        <v>1077.20859664721</v>
       </c>
       <c r="S35">
-        <v>0.008755054969890826</v>
+        <v>0.005890702582117147</v>
       </c>
       <c r="T35">
-        <v>0.006886018724431084</v>
+        <v>0.004164535098093215</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H36">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I36">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J36">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.498192666666667</v>
+        <v>16.70532533333333</v>
       </c>
       <c r="N36">
-        <v>4.494578</v>
+        <v>50.115976</v>
       </c>
       <c r="O36">
-        <v>0.1006142849367024</v>
+        <v>0.55905026466217</v>
       </c>
       <c r="P36">
-        <v>0.1151430002827225</v>
+        <v>0.5844355079842727</v>
       </c>
       <c r="Q36">
-        <v>73.01785646397732</v>
+        <v>3316.860665106783</v>
       </c>
       <c r="R36">
-        <v>657.160708175796</v>
+        <v>29851.74598596104</v>
       </c>
       <c r="S36">
-        <v>0.006702595982535213</v>
+        <v>0.1088292819716494</v>
       </c>
       <c r="T36">
-        <v>0.00790758052292553</v>
+        <v>0.1154081431255165</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H37">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I37">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J37">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.951431</v>
+        <v>3.166105666666667</v>
       </c>
       <c r="N37">
-        <v>2.854293</v>
+        <v>9.498317</v>
       </c>
       <c r="O37">
-        <v>0.06389535328897063</v>
+        <v>0.1059549679865596</v>
       </c>
       <c r="P37">
-        <v>0.07312185030629634</v>
+        <v>0.110766150117293</v>
       </c>
       <c r="Q37">
-        <v>46.370172367714</v>
+        <v>628.6337522792145</v>
       </c>
       <c r="R37">
-        <v>417.3315513094261</v>
+        <v>5657.70377051293</v>
       </c>
       <c r="S37">
-        <v>0.004256500342140772</v>
+        <v>0.02062605782733056</v>
       </c>
       <c r="T37">
-        <v>0.005021728788224987</v>
+        <v>0.0218729278621158</v>
       </c>
     </row>
   </sheetData>
